--- a/projetos.xlsx
+++ b/projetos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsi-Adan\Documents\GitHub\AFRepository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B89A483-EC59-4DED-83AA-CCC5B81EBC01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F07CD3-DCF7-4544-BB12-162119D7B4B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{788BA45F-CFC8-4167-8F28-A7056DBDCFE9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -163,6 +163,12 @@
   </si>
   <si>
     <t>data_alteracao</t>
+  </si>
+  <si>
+    <t>complexidade</t>
+  </si>
+  <si>
+    <t>alta</t>
   </si>
 </sst>
 </file>
@@ -525,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{422739A6-C1EF-41C5-BFD2-8B6B729EE2A2}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -537,13 +543,13 @@
     <col min="2" max="2" width="7.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.77734375" customWidth="1"/>
     <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" customWidth="1"/>
-    <col min="6" max="6" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.44140625" customWidth="1"/>
+    <col min="7" max="7" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -560,22 +566,25 @@
         <v>21</v>
       </c>
       <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>39</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>4</v>
       </c>
@@ -592,19 +601,22 @@
         <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>45031</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>45018.416666666664</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -621,19 +633,22 @@
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>45026</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>45017.416666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -650,22 +665,25 @@
         <v>23</v>
       </c>
       <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>45017</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>45015.416666666664</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>45017.635682870372</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -682,18 +700,21 @@
         <v>22</v>
       </c>
       <c r="F5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" t="s">
         <v>13</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>45019</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>44995.416666666664</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>45016.434571759259</v>
       </c>
     </row>
